--- a/medicine/Psychotrope/Comité_national_contre_le_tabagisme/Comité_national_contre_le_tabagisme.xlsx
+++ b/medicine/Psychotrope/Comité_national_contre_le_tabagisme/Comité_national_contre_le_tabagisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_national_contre_le_tabagisme</t>
+          <t>Comité_national_contre_le_tabagisme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Comité national contre le tabagisme (CNCT) est une association française qui s’engage et agit pour la prévention et la protection des personnes face aux méfaits du tabac et aux pratiques de son industrie. Le CNCT mène des actions de prévention afin de sensibiliser aux dangers du tabagisme et aux actions de plaidoyer pour faire adopter des mesures de protection efficaces.
 Le CNCT est membre de l'Alliance contre le tabac, une coalition qui fédère les associations françaises parties prenantes de la lutte antitabac.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_national_contre_le_tabagisme</t>
+          <t>Comité_national_contre_le_tabagisme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'association a été fondée en 1868 sous le nom de « Société contre l'abus du tabac », et a pris sa dénomination actuelle à l'occasion de son centenaire, en 1968. Elle a été reconnue d'utilité publique en 1977[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'association a été fondée en 1868 sous le nom de « Société contre l'abus du tabac », et a pris sa dénomination actuelle à l'occasion de son centenaire, en 1968. Elle a été reconnue d'utilité publique en 1977.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_national_contre_le_tabagisme</t>
+          <t>Comité_national_contre_le_tabagisme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Campagnes de prévention</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chaque année, le CNCT organise une campagne de prévention sur les risques du tabac. Les différentes campagnes informent des risques qu'a la consommation de tabac sur la santé ainsi que son impact économique sur l'individu fumeur. La campagne de 2012 « Le poids du tabac » dénonce le coût du tabac pour le système de santé français[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque année, le CNCT organise une campagne de prévention sur les risques du tabac. Les différentes campagnes informent des risques qu'a la consommation de tabac sur la santé ainsi que son impact économique sur l'individu fumeur. La campagne de 2012 « Le poids du tabac » dénonce le coût du tabac pour le système de santé français.
 </t>
         </is>
       </c>
